--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t xml:space="preserve">Diagrama de Gantt</t>
   </si>
@@ -394,25 +394,25 @@
   <dimension ref="A1:T1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="7.87"/>
@@ -619,7 +619,9 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -397,7 +397,7 @@
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.5"/>
